--- a/results/accel-glmm-results/season/np/glmm_multi_comp_hab_season_np.xlsx
+++ b/results/accel-glmm-results/season/np/glmm_multi_comp_hab_season_np.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">term</t>
   </si>
   <si>
-    <t xml:space="preserve">contrast</t>
+    <t xml:space="preserve">con_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con_2</t>
   </si>
   <si>
     <t xml:space="preserve">null_value</t>
@@ -44,22 +47,16 @@
     <t xml:space="preserve">season</t>
   </si>
   <si>
-    <t xml:space="preserve">Winter / Summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter / Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fall / Summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fall / Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fall / Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring / Summer</t>
+    <t xml:space="preserve">Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall</t>
   </si>
 </sst>
 </file>
@@ -419,178 +416,199 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.884072295229449</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.00356512345511766</v>
-      </c>
-      <c r="F2" t="e">
+        <v>0.884072295129919</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00356512345522638</v>
+      </c>
+      <c r="G2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" t="n">
-        <v>-30.554969640508</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000291434942817042</v>
+        <v>-30.554969664054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000291434732920951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.88397032922554</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.00440458504527537</v>
-      </c>
-      <c r="F3" t="e">
+        <v>0.883970328969684</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0044045850436028</v>
+      </c>
+      <c r="G3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="n">
-        <v>-24.7518515480644</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000177671671357261</v>
+        <v>-24.7518516083878</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000177671405641428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.933263067500679</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.00464176844029736</v>
-      </c>
-      <c r="F4" t="e">
+        <v>0.933263067255638</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00464176844058609</v>
+      </c>
+      <c r="G4" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" t="n">
-        <v>-13.8866819610406</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000000000000000000000000000000000000000000457729789071894</v>
+        <v>-13.8866820093212</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000000000000000000000000000000000000000000457729480608557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.05564111955173</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.00462001932183679</v>
-      </c>
-      <c r="F5" t="e">
+        <v>1.0556411193934</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0046200193232886</v>
+      </c>
+      <c r="G5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" t="n">
-        <v>12.3724914280424</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000000000000000000000000000000000220931926039763</v>
+        <v>12.3724913880289</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000000000000000000000000000000000220932036121536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.933155427994156</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.00544490255378343</v>
-      </c>
-      <c r="F6" t="e">
+        <v>0.933155427584107</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00544490255209406</v>
+      </c>
+      <c r="G6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" t="n">
-        <v>-11.8567706705182</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000000000000000000000000000000119090151647264</v>
+        <v>-11.8567707442956</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000000000000000000000000000000119090046741024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.0001153500299</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.00540875409460446</v>
-      </c>
-      <c r="F7" t="e">
+        <v>1.00011535020678</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00540875409542651</v>
+      </c>
+      <c r="G7" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="n">
-        <v>0.021327773539795</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>0.0213278062425114</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/accel-glmm-results/season/np/glmm_multi_comp_hab_season_np.xlsx
+++ b/results/accel-glmm-results/season/np/glmm_multi_comp_hab_season_np.xlsx
@@ -434,10 +434,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.884072295129919</v>
+        <v>0.884072295130351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00356512345522638</v>
+        <v>0.00356512345522584</v>
       </c>
       <c r="G2" t="e">
         <v>#NUM!</v>
@@ -446,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-30.554969664054</v>
+        <v>-30.5549696639524</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000291434732920951</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000291434733826427</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.883970328969684</v>
+        <v>0.883970328970795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0044045850436028</v>
+        <v>0.00440458504361046</v>
       </c>
       <c r="G3" t="e">
         <v>#NUM!</v>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-24.7518516083878</v>
+        <v>-24.7518516081237</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000177671405641428</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000177671406804475</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.933263067255638</v>
+        <v>0.933263067256699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00464176844058609</v>
+        <v>0.00464176844058466</v>
       </c>
       <c r="G4" t="e">
         <v>#NUM!</v>
@@ -510,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-13.8866820093212</v>
+        <v>-13.8866820091125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000000000000000000000000000000000000000000457729480608557</v>
+        <v>0.000000000000000000000000000000000000000000457729481941531</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0556411193934</v>
+        <v>1.05564111939408</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0046200193232886</v>
+        <v>0.00462001932328184</v>
       </c>
       <c r="G5" t="e">
         <v>#NUM!</v>
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>12.3724913880289</v>
+        <v>12.3724913882033</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000000000000000000000000000000000220932036121536</v>
+        <v>0.000000000000000000000000000000000220932035641574</v>
       </c>
     </row>
     <row r="6">
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.933155427584107</v>
+        <v>0.933155427585885</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00544490255209406</v>
+        <v>0.00544490255210205</v>
       </c>
       <c r="G6" t="e">
         <v>#NUM!</v>
@@ -574,10 +574,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-11.8567707442956</v>
+        <v>-11.8567707439743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000000000000000000000000000000119090046741024</v>
+        <v>0.000000000000000000000000000000119090047197933</v>
       </c>
     </row>
     <row r="7">
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.00011535020678</v>
+        <v>1.00011535020601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00540875409542651</v>
+        <v>0.00540875409542335</v>
       </c>
       <c r="G7" t="e">
         <v>#NUM!</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0213278062425114</v>
+        <v>0.0213278061005536</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
